--- a/CSBaseLine v2.xlsx
+++ b/CSBaseLine v2.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">CSEAP v2</t>
   </si>
   <si>
-    <t xml:space="preserve">A EAP do projeto identifica todas as subtarefas a serem realizadas, sendo está divisão definida pelos membros da equipe</t>
+    <t xml:space="preserve">A EAP do projeto identifica todas as sub-tarefas a serem realizadas, sendo está divisão definida pelos membros da equipe</t>
   </si>
   <si>
     <t xml:space="preserve">Declaração de Escopo do Projeto</t>
@@ -77,32 +77,27 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -178,39 +173,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -294,7 +289,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -345,7 +340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="34.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
